--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N2">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q2">
-        <v>2.923576405555333</v>
+        <v>0.01968229827777778</v>
       </c>
       <c r="R2">
-        <v>26.312187649998</v>
+        <v>0.1771406845</v>
       </c>
       <c r="S2">
-        <v>0.1607365658370252</v>
+        <v>0.001352392703610653</v>
       </c>
       <c r="T2">
-        <v>0.1607365658370252</v>
+        <v>0.001352392703610653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J3">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q3">
-        <v>1.204221197842</v>
+        <v>0.02639073016666667</v>
       </c>
       <c r="R3">
-        <v>10.837990780578</v>
+        <v>0.2375165715</v>
       </c>
       <c r="S3">
-        <v>0.066207395668356</v>
+        <v>0.001813336553315723</v>
       </c>
       <c r="T3">
-        <v>0.066207395668356</v>
+        <v>0.001813336553315723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H4">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J4">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N4">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q4">
-        <v>1.376417230523333</v>
+        <v>0.02510099222222222</v>
       </c>
       <c r="R4">
-        <v>12.38775507471</v>
+        <v>0.22590893</v>
       </c>
       <c r="S4">
-        <v>0.0756746354816764</v>
+        <v>0.001724717218265518</v>
       </c>
       <c r="T4">
-        <v>0.0756746354816764</v>
+        <v>0.001724717218265518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H5">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J5">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N5">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q5">
-        <v>6.737351358511889</v>
+        <v>4.004960109654</v>
       </c>
       <c r="R5">
-        <v>60.636162226607</v>
+        <v>36.044640986886</v>
       </c>
       <c r="S5">
-        <v>0.3704157408531667</v>
+        <v>0.2751852834515275</v>
       </c>
       <c r="T5">
-        <v>0.3704157408531667</v>
+        <v>0.2751852834515275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H6">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J6">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q6">
-        <v>2.775115200619667</v>
+        <v>5.369993894538</v>
       </c>
       <c r="R6">
-        <v>24.976036805577</v>
+        <v>48.32994505084201</v>
       </c>
       <c r="S6">
-        <v>0.1525742533364722</v>
+        <v>0.3689782798183921</v>
       </c>
       <c r="T6">
-        <v>0.1525742533364722</v>
+        <v>0.3689782798183921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2278356666666667</v>
+        <v>0.440874</v>
       </c>
       <c r="H7">
-        <v>0.683507</v>
+        <v>1.322622</v>
       </c>
       <c r="I7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J7">
-        <v>0.6973814030129425</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N7">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q7">
-        <v>3.171939163390555</v>
+        <v>5.10755762076</v>
       </c>
       <c r="R7">
-        <v>28.54745247051499</v>
+        <v>45.96801858684</v>
       </c>
       <c r="S7">
-        <v>0.1743914088233035</v>
+        <v>0.3509459902548886</v>
       </c>
       <c r="T7">
-        <v>0.1743914088233035</v>
+        <v>0.3509459902548886</v>
       </c>
     </row>
   </sheetData>
